--- a/input/Student Test Data.xlsx
+++ b/input/Student Test Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Neomi\Documents\Github\b2023-res-abm\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C2375A-5472-44AD-8F90-9534E870F3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E36C89C-761F-4043-ABA5-1A8A126F9362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7995" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8747" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8750" uniqueCount="173">
   <si>
     <t>What is your PSHSMC Batch?</t>
   </si>
@@ -493,9 +493,6 @@
     <t>STE elective</t>
   </si>
   <si>
-    <t>Research group</t>
-  </si>
-  <si>
     <t>Previous year</t>
   </si>
   <si>
@@ -529,13 +526,22 @@
     <t>Group ID</t>
   </si>
   <si>
-    <t>Staying?</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
     <t>X-11</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Required?</t>
+  </si>
+  <si>
+    <t>Research 3</t>
+  </si>
+  <si>
+    <t>Parent:</t>
   </si>
 </sst>
 </file>
@@ -576,7 +582,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -592,6 +598,13 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -19047,10 +19060,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -19071,13 +19084,13 @@
       <c r="H1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="7" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
       <c r="C2" s="4" t="s">
         <v>154</v>
       </c>
@@ -19096,7 +19109,7 @@
       <c r="H2" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="I2" s="6"/>
+      <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -26365,9 +26378,9 @@
   </sheetPr>
   <dimension ref="A1:K218"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -26383,22 +26396,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5" t="s">
-        <v>158</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>150</v>
@@ -26409,14 +26422,16 @@
       <c r="J1" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="7" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9" t="s">
+        <v>171</v>
+      </c>
       <c r="D2" s="4" t="s">
         <v>154</v>
       </c>
@@ -26426,7 +26441,7 @@
       <c r="F2" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="G2" s="8"/>
       <c r="H2" s="4" t="s">
         <v>155</v>
       </c>
@@ -26436,7 +26451,7 @@
       <c r="J2" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="K2" s="6"/>
+      <c r="K2" s="8"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -27846,7 +27861,7 @@
         <v>140</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>16</v>
@@ -27916,7 +27931,7 @@
         <v>142</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>31</v>
@@ -29138,7 +29153,7 @@
         <v>177</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>27</v>
@@ -29768,7 +29783,7 @@
         <v>195</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>41</v>
@@ -30083,7 +30098,7 @@
         <v>204</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>16</v>
@@ -30433,7 +30448,7 @@
         <v>214</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>41</v>
@@ -30713,7 +30728,7 @@
         <v>222</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>16</v>
@@ -30853,7 +30868,7 @@
         <v>226</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>16</v>
@@ -30888,7 +30903,7 @@
         <v>227</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>16</v>
@@ -31480,7 +31495,7 @@
         <v>244</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>31</v>
@@ -31865,7 +31880,7 @@
         <v>255</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>31</v>
@@ -32425,7 +32440,7 @@
         <v>271</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D174" s="3" t="s">
         <v>31</v>
@@ -32950,7 +32965,7 @@
         <v>286</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D189" s="3" t="s">
         <v>27</v>
@@ -33993,10 +34008,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="D1:F1"/>
@@ -34007,453 +34021,465 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B55"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="9"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="B10" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="B11" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="B12" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="B13" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="B14" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="B15" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>166</v>
-      </c>
       <c r="B16" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>32</v>
+        <v>159</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>139</v>
+        <v>32</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>37</v>
+        <v>136</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>33</v>
+        <v>135</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>163</v>
+        <v>29</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>35</v>
+        <v>162</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>169</v>
+      <c r="B56" s="3" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
